--- a/VRFs/VRF-Details.xlsx
+++ b/VRFs/VRF-Details.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/DCNM-Python/VRFs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/dcnm-python/VRFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB551B-3870-6545-8A39-ACEE74B96910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC16A2A-CE0A-4E40-9FD3-DBD76E946BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="5280" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8B8DA8A5-FD7B-394D-B8B3-27BA63980BC9}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="49760" windowHeight="28300" activeTab="1" xr2:uid="{8B8DA8A5-FD7B-394D-B8B3-27BA63980BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="VRF-Create" sheetId="1" r:id="rId1"/>
     <sheet name="VRF-Association" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="189">
   <si>
     <t>VRF-Name</t>
   </si>
@@ -93,13 +94,523 @@
   </si>
   <si>
     <t>VRF-ID</t>
+  </si>
+  <si>
+    <t>ab-data-w</t>
+  </si>
+  <si>
+    <t>ab-dmz</t>
+  </si>
+  <si>
+    <t>ad-1740</t>
+  </si>
+  <si>
+    <t>ad-actic</t>
+  </si>
+  <si>
+    <t>ad-auditor</t>
+  </si>
+  <si>
+    <t>ad-aws</t>
+  </si>
+  <si>
+    <t>ad-azure-com</t>
+  </si>
+  <si>
+    <t>ad-breaz</t>
+  </si>
+  <si>
+    <t>ad-data</t>
+  </si>
+  <si>
+    <t>ad-data-w</t>
+  </si>
+  <si>
+    <t>ad-iot</t>
+  </si>
+  <si>
+    <t>ad-kiosk</t>
+  </si>
+  <si>
+    <t>ad-tucdmz</t>
+  </si>
+  <si>
+    <t>ad-wifihvac</t>
+  </si>
+  <si>
+    <t>ah-data</t>
+  </si>
+  <si>
+    <t>ah-data-w</t>
+  </si>
+  <si>
+    <t>ah-dmz</t>
+  </si>
+  <si>
+    <t>ah-lab</t>
+  </si>
+  <si>
+    <t>an-data</t>
+  </si>
+  <si>
+    <t>az-badge</t>
+  </si>
+  <si>
+    <t>az-data</t>
+  </si>
+  <si>
+    <t>az-mgmt</t>
+  </si>
+  <si>
+    <t>az-sacnet</t>
+  </si>
+  <si>
+    <t>az-voip</t>
+  </si>
+  <si>
+    <t>az-zadara</t>
+  </si>
+  <si>
+    <t>b7-data</t>
+  </si>
+  <si>
+    <t>b7-data-w</t>
+  </si>
+  <si>
+    <t>b8-data</t>
+  </si>
+  <si>
+    <t>bf-data</t>
+  </si>
+  <si>
+    <t>bf-data-w</t>
+  </si>
+  <si>
+    <t>bh-data</t>
+  </si>
+  <si>
+    <t>bn-data</t>
+  </si>
+  <si>
+    <t>bn-dmz</t>
+  </si>
+  <si>
+    <t>bn-pci</t>
+  </si>
+  <si>
+    <t>ch-data</t>
+  </si>
+  <si>
+    <t>dc-aplus</t>
+  </si>
+  <si>
+    <t>dc-aws</t>
+  </si>
+  <si>
+    <t>dc-bucdmz</t>
+  </si>
+  <si>
+    <t>dc-campus</t>
+  </si>
+  <si>
+    <t>dc-data</t>
+  </si>
+  <si>
+    <t>dc-data-w</t>
+  </si>
+  <si>
+    <t>dc-dmz</t>
+  </si>
+  <si>
+    <t>dc-doudmz</t>
+  </si>
+  <si>
+    <t>dc-edu-tv</t>
+  </si>
+  <si>
+    <t>dc-emp</t>
+  </si>
+  <si>
+    <t>dc-eymdmz</t>
+  </si>
+  <si>
+    <t>dc-fleet</t>
+  </si>
+  <si>
+    <t>dc-flodmz</t>
+  </si>
+  <si>
+    <t>dc-ftgdmz</t>
+  </si>
+  <si>
+    <t>dc-glodmz</t>
+  </si>
+  <si>
+    <t>dc-goodmz</t>
+  </si>
+  <si>
+    <t>dc-inmate</t>
+  </si>
+  <si>
+    <t>dc-inmate-112</t>
+  </si>
+  <si>
+    <t>dc-inmate-113</t>
+  </si>
+  <si>
+    <t>dc-inmate-115</t>
+  </si>
+  <si>
+    <t>dc-inmate-116</t>
+  </si>
+  <si>
+    <t>dc-inmate-120</t>
+  </si>
+  <si>
+    <t>dc-inmate-125</t>
+  </si>
+  <si>
+    <t>dc-inmate-126</t>
+  </si>
+  <si>
+    <t>dc-inmate-127</t>
+  </si>
+  <si>
+    <t>dc-inmate-129</t>
+  </si>
+  <si>
+    <t>dc-inmate-130</t>
+  </si>
+  <si>
+    <t>dc-jo-943</t>
+  </si>
+  <si>
+    <t>dc-jo-944</t>
+  </si>
+  <si>
+    <t>dc-med</t>
+  </si>
+  <si>
+    <t>dc-med-w</t>
+  </si>
+  <si>
+    <t>dc-mug</t>
+  </si>
+  <si>
+    <t>dc-papdmz</t>
+  </si>
+  <si>
+    <t>dc-phodmz</t>
+  </si>
+  <si>
+    <t>dc-prcdmz</t>
+  </si>
+  <si>
+    <t>dc-safdmz</t>
+  </si>
+  <si>
+    <t>dc-snldmz</t>
+  </si>
+  <si>
+    <t>dc-snodmz</t>
+  </si>
+  <si>
+    <t>dc-stjdmz</t>
+  </si>
+  <si>
+    <t>dc-tire</t>
+  </si>
+  <si>
+    <t>dc-tucdmz</t>
+  </si>
+  <si>
+    <t>dc-visit</t>
+  </si>
+  <si>
+    <t>dc-windmz</t>
+  </si>
+  <si>
+    <t>de-data</t>
+  </si>
+  <si>
+    <t>df-data</t>
+  </si>
+  <si>
+    <t>df-data-w</t>
+  </si>
+  <si>
+    <t>do-data</t>
+  </si>
+  <si>
+    <t>dj-data</t>
+  </si>
+  <si>
+    <t>dt-aruba</t>
+  </si>
+  <si>
+    <t>dt-aws</t>
+  </si>
+  <si>
+    <t>dt-awscorp</t>
+  </si>
+  <si>
+    <t>dt-badge</t>
+  </si>
+  <si>
+    <t>dt-data</t>
+  </si>
+  <si>
+    <t>dt-data-w</t>
+  </si>
+  <si>
+    <t>dt-enforcement</t>
+  </si>
+  <si>
+    <t>dt-facm</t>
+  </si>
+  <si>
+    <t>dt-genvpn</t>
+  </si>
+  <si>
+    <t>dt-goocc</t>
+  </si>
+  <si>
+    <t>dt-hvac</t>
+  </si>
+  <si>
+    <t>dt-intercom</t>
+  </si>
+  <si>
+    <t>dt-ipcameras</t>
+  </si>
+  <si>
+    <t>dt-itadvpn</t>
+  </si>
+  <si>
+    <t>dt-itgtech</t>
+  </si>
+  <si>
+    <t>dt-kiosk</t>
+  </si>
+  <si>
+    <t>dt-memorex3</t>
+  </si>
+  <si>
+    <t>dt-mrprinters</t>
+  </si>
+  <si>
+    <t>dt-mvm</t>
+  </si>
+  <si>
+    <t>dt-mvmwifi</t>
+  </si>
+  <si>
+    <t>dt-pwrvpn</t>
+  </si>
+  <si>
+    <t>dt-sgvpn</t>
+  </si>
+  <si>
+    <t>dt-virtualcsr</t>
+  </si>
+  <si>
+    <t>dt-yumacc</t>
+  </si>
+  <si>
+    <t>ed-data</t>
+  </si>
+  <si>
+    <t>ed-data-pci</t>
+  </si>
+  <si>
+    <t>ed-data-w</t>
+  </si>
+  <si>
+    <t>eq-db-dmz</t>
+  </si>
+  <si>
+    <t>eq-webdmz</t>
+  </si>
+  <si>
+    <t>ev-data</t>
+  </si>
+  <si>
+    <t>fd-data</t>
+  </si>
+  <si>
+    <t>fo-data</t>
+  </si>
+  <si>
+    <t>fo-dmz</t>
+  </si>
+  <si>
+    <t>gf-data</t>
+  </si>
+  <si>
+    <t>gm-data</t>
+  </si>
+  <si>
+    <t>gm-secure</t>
+  </si>
+  <si>
+    <t>gs-data</t>
+  </si>
+  <si>
+    <t>gv-data</t>
+  </si>
+  <si>
+    <t>hc-data</t>
+  </si>
+  <si>
+    <t>hd-data</t>
+  </si>
+  <si>
+    <t>hd-dmz</t>
+  </si>
+  <si>
+    <t>hd-guest</t>
+  </si>
+  <si>
+    <t>he-data</t>
+  </si>
+  <si>
+    <t>hg-data</t>
+  </si>
+  <si>
+    <t>hg-data-w</t>
+  </si>
+  <si>
+    <t>hg-dmz</t>
+  </si>
+  <si>
+    <t>hs-data</t>
+  </si>
+  <si>
+    <t>ic-data</t>
+  </si>
+  <si>
+    <t>ic-dmz</t>
+  </si>
+  <si>
+    <t>ic-guest</t>
+  </si>
+  <si>
+    <t>ic-maint</t>
+  </si>
+  <si>
+    <t>ic-monitor</t>
+  </si>
+  <si>
+    <t>id-data</t>
+  </si>
+  <si>
+    <t>id-dmz</t>
+  </si>
+  <si>
+    <t>jc-data</t>
+  </si>
+  <si>
+    <t>ld-data</t>
+  </si>
+  <si>
+    <t>me-data</t>
+  </si>
+  <si>
+    <t>mt-data</t>
+  </si>
+  <si>
+    <t>nb-data</t>
+  </si>
+  <si>
+    <t>nc-data</t>
+  </si>
+  <si>
+    <t>ns-data</t>
+  </si>
+  <si>
+    <t>pa-data</t>
+  </si>
+  <si>
+    <t>pa-data-w</t>
+  </si>
+  <si>
+    <t>pb-data</t>
+  </si>
+  <si>
+    <t>ps-acjis</t>
+  </si>
+  <si>
+    <t>ps-data</t>
+  </si>
+  <si>
+    <t>pv-data</t>
+  </si>
+  <si>
+    <t>rb-data</t>
+  </si>
+  <si>
+    <t>re-data</t>
+  </si>
+  <si>
+    <t>re-data-w</t>
+  </si>
+  <si>
+    <t>re-dmz</t>
+  </si>
+  <si>
+    <t>rg-data</t>
+  </si>
+  <si>
+    <t>rt-data</t>
+  </si>
+  <si>
+    <t>rg-data-w</t>
+  </si>
+  <si>
+    <t>rt-dmz</t>
+  </si>
+  <si>
+    <t>rt-iot</t>
+  </si>
+  <si>
+    <t>rt-mosaic</t>
+  </si>
+  <si>
+    <t>rv-data</t>
+  </si>
+  <si>
+    <t>to-data</t>
+  </si>
+  <si>
+    <t>to-data-w</t>
+  </si>
+  <si>
+    <t>tr-data</t>
+  </si>
+  <si>
+    <t>tr-data-w</t>
+  </si>
+  <si>
+    <t>tx-data</t>
+  </si>
+  <si>
+    <t>uo-data</t>
+  </si>
+  <si>
+    <t>uo-data-w</t>
+  </si>
+  <si>
+    <t>wf-data</t>
+  </si>
+  <si>
+    <t>9LPTQT6TC0C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +620,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,9 +652,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,7 +962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FB12E8-2969-0A4D-A375-6382709C93B4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,23 +1131,2966 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>3201</v>
       </c>
       <c r="F2">
-        <v>10100</v>
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>3202</v>
+      </c>
+      <c r="F3">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>3203</v>
+      </c>
+      <c r="F4">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5">
+        <v>3204</v>
+      </c>
+      <c r="F5">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6">
+        <v>3205</v>
+      </c>
+      <c r="F6">
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7">
+        <v>3206</v>
+      </c>
+      <c r="F7">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8">
+        <v>3207</v>
+      </c>
+      <c r="F8">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9">
+        <v>3208</v>
+      </c>
+      <c r="F9">
+        <v>10214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10">
+        <v>3209</v>
+      </c>
+      <c r="F10">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11">
+        <v>3210</v>
+      </c>
+      <c r="F11">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12">
+        <v>3211</v>
+      </c>
+      <c r="F12">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13">
+        <v>3212</v>
+      </c>
+      <c r="F13">
+        <v>10216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14">
+        <v>3213</v>
+      </c>
+      <c r="F14">
+        <v>10298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15">
+        <v>3214</v>
+      </c>
+      <c r="F15">
+        <v>10217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16">
+        <v>3215</v>
+      </c>
+      <c r="F16">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17">
+        <v>3216</v>
+      </c>
+      <c r="F17">
+        <v>10401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18">
+        <v>3217</v>
+      </c>
+      <c r="F18">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19">
+        <v>3218</v>
+      </c>
+      <c r="F19">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20">
+        <v>3219</v>
+      </c>
+      <c r="F20">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21">
+        <v>3220</v>
+      </c>
+      <c r="F21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22">
+        <v>3221</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23">
+        <v>3222</v>
+      </c>
+      <c r="F23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24">
+        <v>3223</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25">
+        <v>3224</v>
+      </c>
+      <c r="F25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26">
+        <v>3225</v>
+      </c>
+      <c r="F26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27">
+        <v>3226</v>
+      </c>
+      <c r="F27">
+        <v>13927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28">
+        <v>3227</v>
+      </c>
+      <c r="F28">
+        <v>13957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>3228</v>
+      </c>
+      <c r="F29">
+        <v>13928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30">
+        <v>3229</v>
+      </c>
+      <c r="F30">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31">
+        <v>3230</v>
+      </c>
+      <c r="F31">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32">
+        <v>3231</v>
+      </c>
+      <c r="F32">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33">
+        <v>3232</v>
+      </c>
+      <c r="F33">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34">
+        <v>3233</v>
+      </c>
+      <c r="F34">
+        <v>11299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35">
+        <v>3234</v>
+      </c>
+      <c r="F35">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36">
+        <v>3235</v>
+      </c>
+      <c r="F36">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37">
+        <v>3236</v>
+      </c>
+      <c r="F37">
+        <v>12111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38">
+        <v>3237</v>
+      </c>
+      <c r="F38">
+        <v>12170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39">
+        <v>3238</v>
+      </c>
+      <c r="F39">
+        <v>12191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40">
+        <v>3239</v>
+      </c>
+      <c r="F40">
+        <v>12112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41">
+        <v>3240</v>
+      </c>
+      <c r="F41">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42">
+        <v>3241</v>
+      </c>
+      <c r="F42">
+        <v>12101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43">
+        <v>3242</v>
+      </c>
+      <c r="F43">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44">
+        <v>3243</v>
+      </c>
+      <c r="F44">
+        <v>12190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45">
+        <v>3244</v>
+      </c>
+      <c r="F45">
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46">
+        <v>3245</v>
+      </c>
+      <c r="F46">
+        <v>12114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47">
+        <v>3246</v>
+      </c>
+      <c r="F47">
+        <v>12189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48">
+        <v>3247</v>
+      </c>
+      <c r="F48">
+        <v>12115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49">
+        <v>3248</v>
+      </c>
+      <c r="F49">
+        <v>12188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50">
+        <v>3249</v>
+      </c>
+      <c r="F50">
+        <v>12187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51">
+        <v>3250</v>
+      </c>
+      <c r="F51">
+        <v>12186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52">
+        <v>3251</v>
+      </c>
+      <c r="F52">
+        <v>12185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53">
+        <v>3252</v>
+      </c>
+      <c r="F53">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54">
+        <v>3253</v>
+      </c>
+      <c r="F54">
+        <v>12121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55">
+        <v>3254</v>
+      </c>
+      <c r="F55">
+        <v>12122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56">
+        <v>3255</v>
+      </c>
+      <c r="F56">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57">
+        <v>3256</v>
+      </c>
+      <c r="F57">
+        <v>12124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58">
+        <v>3257</v>
+      </c>
+      <c r="F58">
+        <v>12125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59">
+        <v>3258</v>
+      </c>
+      <c r="F59">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60">
+        <v>3259</v>
+      </c>
+      <c r="F60">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61">
+        <v>3260</v>
+      </c>
+      <c r="F61">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62">
+        <v>3261</v>
+      </c>
+      <c r="F62">
+        <v>12128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63">
+        <v>3262</v>
+      </c>
+      <c r="F63">
+        <v>12129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64">
+        <v>3263</v>
+      </c>
+      <c r="F64">
+        <v>12184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65">
+        <v>3264</v>
+      </c>
+      <c r="F65">
+        <v>12183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66">
+        <v>3265</v>
+      </c>
+      <c r="F66">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67">
+        <v>3266</v>
+      </c>
+      <c r="F67">
+        <v>12131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68">
+        <v>3267</v>
+      </c>
+      <c r="F68">
+        <v>12169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69">
+        <v>3268</v>
+      </c>
+      <c r="F69">
+        <v>12197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70">
+        <v>3269</v>
+      </c>
+      <c r="F70">
+        <v>12199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71">
+        <v>3270</v>
+      </c>
+      <c r="F71">
+        <v>12182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72">
+        <v>3271</v>
+      </c>
+      <c r="F72">
+        <v>12196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73">
+        <v>3272</v>
+      </c>
+      <c r="F73">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74">
+        <v>3273</v>
+      </c>
+      <c r="F74">
+        <v>12194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75">
+        <v>3274</v>
+      </c>
+      <c r="F75">
+        <v>12193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76">
+        <v>3275</v>
+      </c>
+      <c r="F76">
+        <v>12118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77">
+        <v>3276</v>
+      </c>
+      <c r="F77">
+        <v>12198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78">
+        <v>3277</v>
+      </c>
+      <c r="F78">
+        <v>12119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79">
+        <v>3278</v>
+      </c>
+      <c r="F79">
+        <v>12192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80">
+        <v>3279</v>
+      </c>
+      <c r="F80">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81">
+        <v>3280</v>
+      </c>
+      <c r="F81">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82">
+        <v>3281</v>
+      </c>
+      <c r="F82">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83">
+        <v>3282</v>
+      </c>
+      <c r="F83">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84">
+        <v>3283</v>
+      </c>
+      <c r="F84">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85">
+        <v>3284</v>
+      </c>
+      <c r="F85">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86">
+        <v>3285</v>
+      </c>
+      <c r="F86">
+        <v>12611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87">
+        <v>3286</v>
+      </c>
+      <c r="F87">
+        <v>12671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88">
+        <v>3287</v>
+      </c>
+      <c r="F88">
+        <v>12670</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89">
+        <v>3288</v>
+      </c>
+      <c r="F89">
+        <v>12625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90">
+        <v>3289</v>
+      </c>
+      <c r="F90">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91">
+        <v>3290</v>
+      </c>
+      <c r="F91">
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92">
+        <v>3291</v>
+      </c>
+      <c r="F92">
+        <v>12612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93">
+        <v>3292</v>
+      </c>
+      <c r="F93">
+        <v>12613</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94">
+        <v>3293</v>
+      </c>
+      <c r="F94">
+        <v>12614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95">
+        <v>3294</v>
+      </c>
+      <c r="F95">
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96">
+        <v>3295</v>
+      </c>
+      <c r="F96">
+        <v>12615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97">
+        <v>3296</v>
+      </c>
+      <c r="F97">
+        <v>12616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98">
+        <v>3297</v>
+      </c>
+      <c r="F98">
+        <v>12617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="E99">
+        <v>3298</v>
+      </c>
+      <c r="F99">
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="E100">
+        <v>3299</v>
+      </c>
+      <c r="F100">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101">
+        <v>3300</v>
+      </c>
+      <c r="F101">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102">
+        <v>3301</v>
+      </c>
+      <c r="F102">
+        <v>12631</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
+      </c>
+      <c r="E103">
+        <v>3302</v>
+      </c>
+      <c r="F103">
+        <v>12632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104">
+        <v>3303</v>
+      </c>
+      <c r="F104">
+        <v>12622</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105">
+        <v>3304</v>
+      </c>
+      <c r="F105">
+        <v>12623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106">
+        <v>3305</v>
+      </c>
+      <c r="F106">
+        <v>12624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107">
+        <v>3306</v>
+      </c>
+      <c r="F107">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>188</v>
+      </c>
+      <c r="E108">
+        <v>3307</v>
+      </c>
+      <c r="F108">
+        <v>12626</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109">
+        <v>3308</v>
+      </c>
+      <c r="F109">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110">
+        <v>3309</v>
+      </c>
+      <c r="F110">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>188</v>
+      </c>
+      <c r="E111">
+        <v>3310</v>
+      </c>
+      <c r="F111">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="E112">
+        <v>3311</v>
+      </c>
+      <c r="F112">
+        <v>12801</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113">
+        <v>3312</v>
+      </c>
+      <c r="F113">
+        <v>13098</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114">
+        <v>3313</v>
+      </c>
+      <c r="F114">
+        <v>13097</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115">
+        <v>3314</v>
+      </c>
+      <c r="F115">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116">
+        <v>3315</v>
+      </c>
+      <c r="F116">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E117">
+        <v>3316</v>
+      </c>
+      <c r="F117">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118">
+        <v>3317</v>
+      </c>
+      <c r="F118">
+        <v>13399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+      <c r="E119">
+        <v>3318</v>
+      </c>
+      <c r="F119">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120">
+        <v>3319</v>
+      </c>
+      <c r="F120">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121">
+        <v>3320</v>
+      </c>
+      <c r="F121">
+        <v>13680</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="E122">
+        <v>3321</v>
+      </c>
+      <c r="F122">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>188</v>
+      </c>
+      <c r="E123">
+        <v>3322</v>
+      </c>
+      <c r="F123">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124">
+        <v>3323</v>
+      </c>
+      <c r="F124">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125">
+        <v>3324</v>
+      </c>
+      <c r="F125">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>188</v>
+      </c>
+      <c r="E126">
+        <v>3325</v>
+      </c>
+      <c r="F126">
+        <v>14199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127">
+        <v>3326</v>
+      </c>
+      <c r="F127">
+        <v>14102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128">
+        <v>3327</v>
+      </c>
+      <c r="F128">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>188</v>
+      </c>
+      <c r="E129">
+        <v>3328</v>
+      </c>
+      <c r="F129">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130">
+        <v>3329</v>
+      </c>
+      <c r="F130">
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131">
+        <v>3330</v>
+      </c>
+      <c r="F131">
+        <v>14399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132">
+        <v>3331</v>
+      </c>
+      <c r="F132">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133">
+        <v>3332</v>
+      </c>
+      <c r="F133">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134">
+        <v>3333</v>
+      </c>
+      <c r="F134">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135">
+        <v>3334</v>
+      </c>
+      <c r="F135">
+        <v>14810</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136">
+        <v>3335</v>
+      </c>
+      <c r="F136">
+        <v>14811</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137">
+        <v>3336</v>
+      </c>
+      <c r="F137">
+        <v>14812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138">
+        <v>3337</v>
+      </c>
+      <c r="F138">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139">
+        <v>3338</v>
+      </c>
+      <c r="F139">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140">
+        <v>3339</v>
+      </c>
+      <c r="F140">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+      <c r="E141">
+        <v>3340</v>
+      </c>
+      <c r="F141">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142">
+        <v>3341</v>
+      </c>
+      <c r="F142">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143">
+        <v>3342</v>
+      </c>
+      <c r="F143">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144">
+        <v>3343</v>
+      </c>
+      <c r="F144">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145">
+        <v>3344</v>
+      </c>
+      <c r="F145">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146">
+        <v>3345</v>
+      </c>
+      <c r="F146">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147">
+        <v>3346</v>
+      </c>
+      <c r="F147">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148">
+        <v>3347</v>
+      </c>
+      <c r="F148">
+        <v>16401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149">
+        <v>3348</v>
+      </c>
+      <c r="F149">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150">
+        <v>3349</v>
+      </c>
+      <c r="F150">
+        <v>17320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151">
+        <v>3350</v>
+      </c>
+      <c r="F151">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152">
+        <v>3351</v>
+      </c>
+      <c r="F152">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153">
+        <v>3352</v>
+      </c>
+      <c r="F153">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>188</v>
+      </c>
+      <c r="E154">
+        <v>3353</v>
+      </c>
+      <c r="F154">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>188</v>
+      </c>
+      <c r="E155">
+        <v>3354</v>
+      </c>
+      <c r="F155">
+        <v>17901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>188</v>
+      </c>
+      <c r="E156">
+        <v>3355</v>
+      </c>
+      <c r="F156">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>188</v>
+      </c>
+      <c r="E157">
+        <v>3356</v>
+      </c>
+      <c r="F157">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158">
+        <v>3357</v>
+      </c>
+      <c r="F158">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159">
+        <v>3358</v>
+      </c>
+      <c r="F159">
+        <v>18001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160">
+        <v>3359</v>
+      </c>
+      <c r="F160">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>188</v>
+      </c>
+      <c r="E161">
+        <v>3360</v>
+      </c>
+      <c r="F161">
+        <v>19799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>188</v>
+      </c>
+      <c r="E162">
+        <v>3361</v>
+      </c>
+      <c r="F162">
+        <v>19708</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>178</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>188</v>
+      </c>
+      <c r="E163">
+        <v>3362</v>
+      </c>
+      <c r="F163">
+        <v>19707</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>179</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+      <c r="E164">
+        <v>3363</v>
+      </c>
+      <c r="F164">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>180</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>188</v>
+      </c>
+      <c r="E165">
+        <v>3364</v>
+      </c>
+      <c r="F165">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>181</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166">
+        <v>3365</v>
+      </c>
+      <c r="F166">
+        <v>18701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>182</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167">
+        <v>3366</v>
+      </c>
+      <c r="F167">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168">
+        <v>3367</v>
+      </c>
+      <c r="F168">
+        <v>18801</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>184</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>188</v>
+      </c>
+      <c r="E169">
+        <v>3368</v>
+      </c>
+      <c r="F169">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>188</v>
+      </c>
+      <c r="E170">
+        <v>3369</v>
+      </c>
+      <c r="F170">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>186</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>188</v>
+      </c>
+      <c r="E171">
+        <v>3370</v>
+      </c>
+      <c r="F171">
+        <v>19001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>188</v>
+      </c>
+      <c r="E172">
+        <v>3371</v>
+      </c>
+      <c r="F172">
+        <v>19400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA8A1B7-E27D-6342-A038-B4C1C4FDE494}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>3201</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VRFs/VRF-Details.xlsx
+++ b/VRFs/VRF-Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/dcnm-python/VRFs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC16A2A-CE0A-4E40-9FD3-DBD76E946BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC5AD2C-AEC1-B346-92E2-DC11D991D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="500" windowWidth="49760" windowHeight="28300" activeTab="1" xr2:uid="{8B8DA8A5-FD7B-394D-B8B3-27BA63980BC9}"/>
   </bookViews>
@@ -603,7 +603,7 @@
     <t>wf-data</t>
   </si>
   <si>
-    <t>9LPTQT6TC0C</t>
+    <t>9PIHVXFMMC9</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FB12E8-2969-0A4D-A375-6382709C93B4}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C172"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
